--- a/datasheets/cohorts.xlsx
+++ b/datasheets/cohorts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/schemas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA60798-246D-CF43-AFA8-435F7E30DA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F28EFB4-02A4-B440-9545-7EB1F042DD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="15240" windowHeight="16280" xr2:uid="{32A38FC8-A576-064A-8638-175D483CA5B3}"/>
   </bookViews>
@@ -1489,9 +1489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DB009C-9C23-D249-BBE3-2FFBA124530C}">
   <dimension ref="A1:CN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BS1" workbookViewId="0">
-      <selection activeCell="BX3" sqref="BX3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>

--- a/datasheets/cohorts.xlsx
+++ b/datasheets/cohorts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oriol/Desktop/beacon-ri-tools-v2/datasheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDA06D8-5666-674D-8F1A-C30152490056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281E0794-6707-4D49-91F7-EE49B674EFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1080" yWindow="500" windowWidth="15240" windowHeight="16280" xr2:uid="{32A38FC8-A576-064A-8638-175D483CA5B3}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>cohortDataTypes_id</t>
   </si>
@@ -2005,6 +2005,9 @@
       </rPr>
       <t>}}</t>
     </r>
+  </si>
+  <si>
+    <t>study-defined</t>
   </si>
 </sst>
 </file>
@@ -2407,8 +2410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9DB009C-9C23-D249-BBE3-2FFBA124530C}">
   <dimension ref="A1:CN22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CG1" workbookViewId="0">
-      <selection activeCell="CM2" sqref="CM2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2689,6 +2692,9 @@
       </c>
     </row>
     <row r="2" spans="1:92" ht="18" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
+        <v>102</v>
+      </c>
       <c r="L2" s="1"/>
       <c r="M2" s="1" t="b">
         <v>1</v>
